--- a/BoschClaims(14jan2021).xlsx
+++ b/BoschClaims(14jan2021).xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Courier Details Update(Claim)" sheetId="4" r:id="rId1"/>
     <sheet name="SP-Claims" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
-    <sheet name="BugReport" sheetId="3" r:id="rId4"/>
-    <sheet name="Summary" sheetId="2" r:id="rId5"/>
+    <sheet name="PolicyExpired" sheetId="6" r:id="rId3"/>
+    <sheet name="UpdateOdometer" sheetId="5" r:id="rId4"/>
+    <sheet name="BugReport" sheetId="3" r:id="rId5"/>
+    <sheet name="Summary" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="469">
   <si>
     <t>Updated By:-</t>
   </si>
@@ -226,9 +226,6 @@
   </si>
   <si>
     <t>Sakshi Tiwari</t>
-  </si>
-  <si>
-    <t>SP-Claims</t>
   </si>
   <si>
     <t>Project Name: BOSCH</t>
@@ -688,12 +685,6 @@
     <t>1)URL-http://13.126.69.89/bosch/index.php
 2)User name-bhavya-123
 and pwd-Welcome@1234567</t>
-  </si>
-  <si>
-    <t>1)Enter valid URL
-2)Login with valid user name pwd
-3)Click on SP-Claims module 
-4)Click on +Add Claim</t>
   </si>
   <si>
     <r>
@@ -1762,9 +1753,6 @@
     <t>SP Claims_TC_32</t>
   </si>
   <si>
-    <t>Lead Dev: Alok Srivastava/Apurwa</t>
-  </si>
-  <si>
     <t>arranty</t>
   </si>
   <si>
@@ -1785,9 +1773,6 @@
   </si>
   <si>
     <t>Re-Testing Date:-</t>
-  </si>
-  <si>
-    <t>Apurwa</t>
   </si>
   <si>
     <t>Update Odometer</t>
@@ -2930,9 +2915,6 @@
     <t>Enetr valid data in all the mandatory fields</t>
   </si>
   <si>
-    <t xml:space="preserve">new </t>
-  </si>
-  <si>
     <t>14.01.2021</t>
   </si>
   <si>
@@ -2973,6 +2955,148 @@
   </si>
   <si>
     <t>SP Claims_TC_45</t>
+  </si>
+  <si>
+    <t>To verify if the data is updated when dealer is forcefully expired the policy</t>
+  </si>
+  <si>
+    <t>Admin and Cliam manager is logged into the system</t>
+  </si>
+  <si>
+    <t>1.)Login with admin or Claim manager
+2.Open the policy number which is expired by the Dealer
+3.Check the Backend punching section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated data for Odometer On Expiry  should be refelect on the Admin and Claim manager side </t>
+  </si>
+  <si>
+    <t>To verify if all the data is autopopulating entered by dealer while editing by the claim manager</t>
+  </si>
+  <si>
+    <t>All the entered data should refelect entered by the dealer and claim manager should be able to Edit the claim</t>
+  </si>
+  <si>
+    <t>SP Claims_TC_46</t>
+  </si>
+  <si>
+    <t>Retesting date</t>
+  </si>
+  <si>
+    <t>Power ID</t>
+  </si>
+  <si>
+    <t>Bug ID_9</t>
+  </si>
+  <si>
+    <t>Bug ID_10</t>
+  </si>
+  <si>
+    <t>Bug ID_11</t>
+  </si>
+  <si>
+    <t>Bug ID_12</t>
+  </si>
+  <si>
+    <t>1)Enter valid URL
+2)Login with valid user name pwd
+3)Click on SP-Service request module 
+4)Click on +Add Servvice request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP-Service Request </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the policy number  by Taking all the pms </t>
+  </si>
+  <si>
+    <t>Dealer is logged into the system</t>
+  </si>
+  <si>
+    <t>1.Avail all the pms and check the policy number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify the Status of the  policy number </t>
+  </si>
+  <si>
+    <t>Click on SP-Sales and check the status of the same policy number next day</t>
+  </si>
+  <si>
+    <t>Policy status should change  Active to Expired</t>
+  </si>
+  <si>
+    <t>To verify the policy number  by Taking all the Srvieces for Odometer reading</t>
+  </si>
+  <si>
+    <t>check the policy number availed the Service based on odometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy is not getting expired after </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy is getting expired </t>
+  </si>
+  <si>
+    <t>To verify the Status of the  policy number based on agreement Expire date</t>
+  </si>
+  <si>
+    <t>Sp-ServiceRequest_TC1</t>
+  </si>
+  <si>
+    <t>Sp-ServiceRequest_TC2</t>
+  </si>
+  <si>
+    <t>Sp-ServiceRequest_TC3</t>
+  </si>
+  <si>
+    <t>Sp-ServiceRequest_TC4</t>
+  </si>
+  <si>
+    <t>User should not  be able to Claim once all the PMS has been availed and Policy shouled get expired</t>
+  </si>
+  <si>
+    <t>User should not  be able to Claim Based on End Km Availed and Policy shouled get expired</t>
+  </si>
+  <si>
+    <r>
+      <t>New Field is added on backend Puchind section(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Odometer On Expiry ) and Expired reseon, Expiry Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> only on Admin side</t>
+    </r>
+  </si>
+  <si>
+    <t>Bug ID_13</t>
+  </si>
+  <si>
+    <t>UpdateOdometer_TC12</t>
+  </si>
+  <si>
+    <t>Sakshi</t>
+  </si>
+  <si>
+    <t>SP-Service Request</t>
+  </si>
+  <si>
+    <t>Lead Dev: Alok Srivastava</t>
   </si>
 </sst>
 </file>
@@ -3316,52 +3440,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -3378,17 +3461,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3414,30 +3486,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3487,298 +3535,288 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3812,13 +3850,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4131,657 +4169,657 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
+      <c r="A1" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15" t="s">
+      <c r="J3" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="69"/>
+      <c r="G4" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="46" t="s">
+      <c r="B5" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="C5" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="D5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="B6" s="23">
+        <v>13445</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="E6" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="36">
+      <c r="F6" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="23">
         <v>13445</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="50" t="s">
+      <c r="C7" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="48" t="s">
+      <c r="H7" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="36">
+    <row r="8" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="23">
         <v>13445</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C8" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="23">
+        <v>13445</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="50" t="s">
+      <c r="D9" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48" t="s">
+      <c r="H9" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="36">
+    <row r="10" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="23">
         <v>13445</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C10" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="50" t="s">
+      <c r="D10" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48" t="s">
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="48" t="s">
+    </row>
+    <row r="11" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="23">
+        <v>13445</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+    <row r="12" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="23">
+        <v>13445</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="36">
+      <c r="F12" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="23">
         <v>13445</v>
       </c>
-      <c r="C9" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="48" t="s">
+      <c r="C13" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="36">
+    <row r="14" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="23">
         <v>13445</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>273</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="48" t="s">
+      <c r="C14" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="B11" s="36">
+    <row r="15" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="23">
         <v>13445</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="48" t="s">
+      <c r="C15" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12" s="36">
+    <row r="16" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="23">
         <v>13445</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="48" t="s">
+      <c r="C16" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" s="36">
+    <row r="17" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="23">
         <v>13445</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="48" t="s">
+      <c r="C17" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="B14" s="36">
+    <row r="18" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="23">
         <v>13445</v>
       </c>
-      <c r="C14" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="50" t="s">
+      <c r="C18" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="23">
+        <v>13445</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="23">
+        <v>13445</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" s="23">
+        <v>13445</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="E21" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="36">
-        <v>13445</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>278</v>
-      </c>
-      <c r="D15" s="50" t="s">
+      <c r="G21" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="E15" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16" s="36">
-        <v>13445</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" s="36">
-        <v>13445</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="B18" s="36">
-        <v>13445</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="B19" s="36">
-        <v>13445</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>282</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="B20" s="36">
-        <v>13445</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B21" s="36">
-        <v>13445</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="48" t="s">
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="33" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4804,1219 +4842,1580 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19" style="84" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="84" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="84" customWidth="1"/>
+    <col min="4" max="4" width="22" style="84" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="84" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="84" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="84"/>
+    <col min="8" max="8" width="29.85546875" style="84" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="84"/>
+    <col min="12" max="12" width="10.7109375" style="84" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="55"/>
+      <c r="B1" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="74"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="75">
+        <v>44187</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="74"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="95" t="s">
+        <v>445</v>
+      </c>
+      <c r="F4" s="72"/>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1">
+        <v>13445</v>
+      </c>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+    </row>
+    <row r="5" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="88" t="s">
+        <v>438</v>
+      </c>
+      <c r="M5" s="88" t="s">
+        <v>439</v>
+      </c>
+      <c r="N5" s="88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+    </row>
+    <row r="7" spans="1:14" s="90" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>444</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M7" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N7" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M8" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N8" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="77">
-        <v>44187</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="10">
-        <v>13445</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" s="31" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="27" t="s">
+      <c r="B9" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M9" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N9" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62" t="s">
+      <c r="D10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M10" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N10" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M11" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N11" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M12" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N12" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="H13" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="56" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="61" t="s">
+      <c r="L13" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M13" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N13" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="56" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="K14" s="56" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="27" t="s">
+      <c r="L14" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M14" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N14" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13" t="s">
+    </row>
+    <row r="15" spans="1:14" s="56" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M15" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N15" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="56" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M16" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N16" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="56" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="27" t="s">
+      <c r="H17" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M17" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N17" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="27" t="s">
+      <c r="D18" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>365</v>
+      </c>
+      <c r="L18" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M18" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N18" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="56" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="D19" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="H19" s="56" t="s">
+        <v>363</v>
+      </c>
+      <c r="K19" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M19" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N19" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="56" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>396</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>397</v>
+      </c>
+      <c r="H20" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="K20" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="27" t="s">
+      <c r="L20" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M20" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N20" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="56" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="D21" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M21" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N21" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="56" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M22" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N22" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="56" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M23" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N23" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="56" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="F24" s="37"/>
+      <c r="H24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="5" t="s">
+      <c r="L24" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M24" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N24" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="H25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M25" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N25" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="56" customFormat="1" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M26" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N26" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="56" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K27" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="L27" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M27" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N27" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="56" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L28" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M28" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N28" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="56" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L29" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M29" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N29" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="56" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L30" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M30" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N30" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="56" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L31" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M31" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N31" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="56" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L32" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M32" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N32" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="56" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L33" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M33" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N33" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="56" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L34" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M34" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N34" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="56" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="L35" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M35" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N35" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="56" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="H36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="L36" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M36" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N36" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="56" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="H37" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="L37" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M37" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N37" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="56" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="E38" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="H38" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="L38" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M38" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N38" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="E39" s="56" t="s">
+        <v>371</v>
+      </c>
+      <c r="F39" s="56" t="s">
+        <v>371</v>
+      </c>
+      <c r="H39" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="L39" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M39" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N39" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="E40" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="F40" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="H40" s="65" t="s">
+        <v>374</v>
+      </c>
+      <c r="L40" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M40" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N40" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="E41" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="F41" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="H41" s="65" t="s">
+        <v>376</v>
+      </c>
+      <c r="L41" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M41" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N41" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="E42" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="F42" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="H42" s="65" t="s">
+        <v>377</v>
+      </c>
+      <c r="L42" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M42" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N42" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="E43" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="F43" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="H43" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="L43" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M43" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N43" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="56" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="F44" s="56" t="s">
+        <v>393</v>
+      </c>
+      <c r="H44" s="65" t="s">
+        <v>394</v>
+      </c>
+      <c r="L44" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M44" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N44" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="E45" s="56" t="s">
+        <v>401</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="H45" s="65" t="s">
+        <v>403</v>
+      </c>
+      <c r="L45" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M45" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N45" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="E46" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="H46" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="K46" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="L46" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M46" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N46" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="H47" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="K47" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="L47" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M47" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N47" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="56" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="E48" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="F48" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L48" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M48" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N48" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F49" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="H49" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="L49" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M49" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N49" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E50" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="H50" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="K50" s="56" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="5" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="K14" s="5" t="s">
+      <c r="L50" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M50" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N50" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="56" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="H51" s="56" t="s">
+        <v>436</v>
+      </c>
+      <c r="L51" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M51" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N51" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="56" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="H52" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="K52" s="56" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="5" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="5" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>364</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="E18" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="66" t="s">
-        <v>366</v>
-      </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>399</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="66" t="s">
-        <v>400</v>
-      </c>
-      <c r="F20" s="97" t="s">
-        <v>401</v>
-      </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66" t="s">
-        <v>368</v>
-      </c>
-      <c r="K20" s="98" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="5" customFormat="1" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="5" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="5" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="5" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="5" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="5" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="5" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="5" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="5" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>385</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>387</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="94" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>371</v>
-      </c>
-      <c r="E38" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="96" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="E39" s="66" t="s">
-        <v>375</v>
-      </c>
-      <c r="F39" s="66" t="s">
-        <v>375</v>
-      </c>
-      <c r="G39" s="66"/>
-      <c r="H39" s="96" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>392</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="E40" s="66" t="s">
-        <v>377</v>
-      </c>
-      <c r="F40" s="66" t="s">
-        <v>377</v>
-      </c>
-      <c r="G40" s="66"/>
-      <c r="H40" s="96" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="E41" s="66" t="s">
-        <v>379</v>
-      </c>
-      <c r="F41" s="66" t="s">
-        <v>379</v>
-      </c>
-      <c r="G41" s="66"/>
-      <c r="H41" s="96" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>390</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="E42" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="F42" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="G42" s="66"/>
-      <c r="H42" s="96" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="E43" s="66" t="s">
-        <v>383</v>
-      </c>
-      <c r="F43" s="66" t="s">
-        <v>383</v>
-      </c>
-      <c r="G43" s="66"/>
-      <c r="H43" s="96" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>395</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="36" t="s">
-        <v>396</v>
-      </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66" t="s">
-        <v>397</v>
-      </c>
-      <c r="G44" s="66"/>
-      <c r="H44" s="96" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>404</v>
-      </c>
-      <c r="E45" s="66" t="s">
-        <v>405</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>406</v>
-      </c>
-      <c r="G45" s="66"/>
-      <c r="H45" s="96" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="E46" s="66" t="s">
-        <v>413</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="G46" s="66"/>
-      <c r="H46" s="96" t="s">
-        <v>415</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="35" t="s">
-        <v>419</v>
-      </c>
-      <c r="G47" s="66"/>
-      <c r="H47" s="96" t="s">
-        <v>418</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="B48" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="D48" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="G48" s="15"/>
-      <c r="H48" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="D49" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="B50" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="D50" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
-        <v>435</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="52" t="s">
-        <v>259</v>
-      </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="L52" s="89">
+        <v>44214</v>
+      </c>
+      <c r="M52" s="91">
+        <v>13622</v>
+      </c>
+      <c r="N52" s="91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="56" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B4:C4"/>
@@ -6034,10 +6433,244 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="F14" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55"/>
+      <c r="B1" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+    </row>
+    <row r="2" spans="1:14" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="74"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+    </row>
+    <row r="3" spans="1:14" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="75">
+        <v>44187</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="74"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+    </row>
+    <row r="4" spans="1:14" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="95" t="s">
+        <v>445</v>
+      </c>
+      <c r="F4" s="72"/>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1">
+        <v>13445</v>
+      </c>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+    </row>
+    <row r="5" spans="1:14" s="84" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+    </row>
+    <row r="6" spans="1:14" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>457</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>447</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>448</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>461</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>447</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="47" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>447</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>453</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>454</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>462</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="47" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>447</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5703125" defaultRowHeight="88.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6051,496 +6684,535 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>466</v>
+      </c>
+      <c r="H2" s="61"/>
+      <c r="I2" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="50">
+        <v>44193</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3" s="58"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+    </row>
+    <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="62"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-    </row>
-    <row r="2" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-    </row>
-    <row r="3" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="68">
+      <c r="B5" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="48">
+        <v>13389</v>
+      </c>
+      <c r="C6" s="54">
         <v>44193</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="67" t="s">
-        <v>305</v>
-      </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="J3" s="69" t="s">
+      <c r="D6" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-    </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="93" t="s">
+      <c r="E6" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="H4" s="93"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="F6" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="B5" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="66">
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="48">
         <v>13389</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C7" s="54">
         <v>44193</v>
       </c>
-      <c r="D6" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="E6" s="66" t="s">
+      <c r="D7" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="46" t="s">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
         <v>313</v>
       </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66" t="s">
+      <c r="B8" s="48">
+        <v>13389</v>
+      </c>
+      <c r="C8" s="54">
+        <v>44193</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
-        <v>314</v>
-      </c>
-      <c r="B7" s="66">
+    <row r="9" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="48">
         <v>13389</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C9" s="54">
         <v>44193</v>
       </c>
-      <c r="D7" s="66" t="s">
-        <v>315</v>
-      </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66" t="s">
-        <v>316</v>
-      </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66" t="s">
+      <c r="D9" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
-        <v>317</v>
-      </c>
-      <c r="B8" s="66">
+    <row r="10" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="48">
         <v>13389</v>
       </c>
-      <c r="C8" s="72">
-        <v>44193</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>318</v>
-      </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="J8" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66" t="s">
+      <c r="C10" s="54">
+        <v>44194</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
+    <row r="11" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" s="48">
+        <v>13389</v>
+      </c>
+      <c r="C11" s="54">
+        <v>44195</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="B9" s="66">
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="48">
         <v>13389</v>
       </c>
-      <c r="C9" s="72">
-        <v>44193</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="E9" s="50" t="s">
+      <c r="C12" s="54">
+        <v>44196</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="F9" s="50" t="s">
-        <v>323</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66" t="s">
+      <c r="H12" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" s="48">
+        <v>13389</v>
+      </c>
+      <c r="C13" s="54">
+        <v>44197</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="E13" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="J9" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66" t="s">
+      <c r="F13" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="I13" s="48"/>
+      <c r="J13" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="B14" s="48">
+        <v>13389</v>
+      </c>
+      <c r="C14" s="54">
+        <v>44198</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="I14" s="48"/>
+      <c r="J14" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="B15" s="48">
+        <v>13389</v>
+      </c>
+      <c r="C15" s="54">
+        <v>44199</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
-        <v>326</v>
-      </c>
-      <c r="B10" s="66">
+    <row r="16" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" s="48">
         <v>13389</v>
       </c>
-      <c r="C10" s="72">
-        <v>44194</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>329</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="J10" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66" t="s">
+      <c r="C16" s="54">
+        <v>44199</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="I16" s="48"/>
+      <c r="J16" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>465</v>
+      </c>
+      <c r="B17" s="48">
+        <v>13389</v>
+      </c>
+      <c r="C17" s="54">
+        <v>44200</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="H17" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="I17" s="48"/>
+      <c r="J17" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="64" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
-        <v>331</v>
-      </c>
-      <c r="B11" s="66">
-        <v>13389</v>
-      </c>
-      <c r="C11" s="72">
-        <v>44195</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>360</v>
-      </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
-        <v>334</v>
-      </c>
-      <c r="B12" s="66">
-        <v>13389</v>
-      </c>
-      <c r="C12" s="72">
-        <v>44196</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>335</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="H12" s="51" t="s">
-        <v>360</v>
-      </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
-        <v>336</v>
-      </c>
-      <c r="B13" s="66">
-        <v>13389</v>
-      </c>
-      <c r="C13" s="72">
-        <v>44197</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>357</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="H13" s="66" t="s">
-        <v>361</v>
-      </c>
-      <c r="I13" s="66"/>
-      <c r="J13" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
-        <v>338</v>
-      </c>
-      <c r="B14" s="66">
-        <v>13389</v>
-      </c>
-      <c r="C14" s="72">
-        <v>44198</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>358</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="H14" s="66" t="s">
-        <v>361</v>
-      </c>
-      <c r="I14" s="66"/>
-      <c r="J14" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
-        <v>340</v>
-      </c>
-      <c r="B15" s="66">
-        <v>13389</v>
-      </c>
-      <c r="C15" s="72">
-        <v>44199</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>341</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>359</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="50" t="s">
-        <v>362</v>
-      </c>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
-        <v>343</v>
-      </c>
-      <c r="B16" s="66">
-        <v>13389</v>
-      </c>
-      <c r="C16" s="72">
-        <v>44200</v>
-      </c>
-      <c r="D16" s="95" t="s">
-        <v>344</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>342</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="H16" s="95" t="s">
-        <v>346</v>
-      </c>
-      <c r="I16" s="66"/>
-      <c r="J16" s="48" t="s">
-        <v>347</v>
-      </c>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="95" t="s">
-        <v>20</v>
-      </c>
+    <row r="18" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="96"/>
+      <c r="E18" s="97"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6548,506 +7220,543 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="1" max="2" width="22.5703125" style="84"/>
+    <col min="3" max="3" width="10.7109375" style="84" customWidth="1"/>
+    <col min="4" max="4" width="12" style="84" customWidth="1"/>
+    <col min="5" max="9" width="22.5703125" style="84"/>
+    <col min="10" max="10" width="14.28515625" style="84" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="84" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="84" customWidth="1"/>
+    <col min="13" max="16384" width="22.5703125" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="38" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:15" s="83" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="82"/>
+    </row>
+    <row r="2" spans="1:15" s="83" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="82"/>
+    </row>
+    <row r="3" spans="1:15" s="83" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="37"/>
-    </row>
-    <row r="2" spans="1:15" s="38" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="82"/>
+    </row>
+    <row r="4" spans="1:15" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="37"/>
-    </row>
-    <row r="3" spans="1:15" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="B4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="37"/>
-    </row>
-    <row r="4" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="D4" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="43" t="s">
+      <c r="E4" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="F4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="H4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="44" t="s">
+      <c r="J4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="44" t="s">
+      <c r="N4" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="N4" s="43" t="s">
+      <c r="O4" s="82"/>
+    </row>
+    <row r="5" spans="1:15" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="39">
+        <v>13445</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="N5" s="39"/>
+    </row>
+    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="39">
+        <v>13445</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="O4" s="37"/>
-    </row>
-    <row r="5" spans="1:15" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="F6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="N6" s="39"/>
+    </row>
+    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="39">
+        <v>13445</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="N7" s="39"/>
+    </row>
+    <row r="8" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="39">
+        <v>13445</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="N8" s="39"/>
+    </row>
+    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="39">
+        <v>13445</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="N9" s="39"/>
+    </row>
+    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" s="39">
+        <v>13445</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="N10" s="39"/>
+    </row>
+    <row r="11" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="54">
+      <c r="D11" s="39">
         <v>13445</v>
       </c>
-      <c r="E5" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54" t="s">
+      <c r="E11" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="M5" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="N5" s="54"/>
-    </row>
-    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="54">
+      <c r="G11" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="N11" s="39"/>
+    </row>
+    <row r="12" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" s="39">
         <v>13445</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="27" t="s">
+      <c r="E12" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="N12" s="39"/>
+    </row>
+    <row r="13" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="85" t="s">
+        <v>417</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>397</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="M6" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="N6" s="54"/>
-    </row>
-    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="54">
-        <v>13445</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="G13" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" s="85" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="86" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="85" t="s">
+        <v>417</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="M7" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="N7" s="54"/>
-    </row>
-    <row r="8" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="54">
-        <v>13445</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="27" t="s">
+      <c r="G14" s="86" t="s">
+        <v>404</v>
+      </c>
+      <c r="H14" s="86" t="s">
+        <v>405</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" s="86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="86" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="85" t="s">
+        <v>417</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="M8" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="N8" s="54"/>
-    </row>
-    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="54">
-        <v>13445</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="27" t="s">
+      <c r="L15" s="39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="86" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="85" t="s">
+        <v>417</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="M9" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="N9" s="54"/>
-    </row>
-    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>287</v>
-      </c>
-      <c r="D10" s="54">
-        <v>13445</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="M10" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="N10" s="54"/>
-    </row>
-    <row r="11" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>288</v>
-      </c>
-      <c r="D11" s="54">
-        <v>13445</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="M11" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="N11" s="54"/>
-    </row>
-    <row r="12" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="D12" s="54">
-        <v>13445</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="M12" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="N12" s="54"/>
-    </row>
-    <row r="13" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="99" t="s">
-        <v>422</v>
-      </c>
-      <c r="E13" s="97" t="s">
-        <v>401</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="L13" s="99" t="s">
-        <v>403</v>
-      </c>
-      <c r="M13" s="99" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="65" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
-        <v>422</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>406</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="65" t="s">
-        <v>408</v>
-      </c>
-      <c r="H14" s="65" t="s">
-        <v>409</v>
-      </c>
-      <c r="L14" s="65" t="s">
-        <v>403</v>
-      </c>
-      <c r="M14" s="65" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="65" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="99" t="s">
-        <v>422</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="65" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="99" t="s">
-        <v>422</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>419</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>420</v>
-      </c>
-      <c r="L16" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="M16" s="65" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="65" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="G16" s="86" t="s">
+        <v>416</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" s="86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="86" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B17" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="L17" s="86" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:12" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:12" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:12" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:12" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:12" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:12" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:12" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:12" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:12" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:12" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:12" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:12" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:12" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:12" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:N1"/>
@@ -7058,13 +7767,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7075,109 +7784,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
+      <c r="A1" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="81" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B4" s="11">
+        <v>46</v>
+      </c>
+      <c r="C4" s="11">
+        <v>46</v>
+      </c>
+      <c r="D4" s="12">
+        <v>46</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="11">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12">
+        <v>16</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" s="11">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11">
+        <v>12</v>
+      </c>
+      <c r="D6" s="12">
+        <v>11</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="15">
+        <f>SUM(B4:B6)</f>
+        <v>74</v>
+      </c>
+      <c r="C7" s="15">
+        <f>SUM(C4:C6)</f>
+        <v>74</v>
+      </c>
+      <c r="D7" s="16">
+        <f>SUM(D4:D6)</f>
+        <v>73</v>
+      </c>
+      <c r="E7" s="17">
+        <f>SUM(E4:E6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="C11" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="F11" s="47" t="s">
         <v>299</v>
-      </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="20">
-        <v>32</v>
-      </c>
-      <c r="C4" s="20">
-        <v>32</v>
-      </c>
-      <c r="D4" s="21">
-        <v>32</v>
-      </c>
-      <c r="E4" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="20">
-        <v>16</v>
-      </c>
-      <c r="C5" s="20">
-        <v>16</v>
-      </c>
-      <c r="D5" s="21">
-        <v>16</v>
-      </c>
-      <c r="E5" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="24">
-        <f>SUM(B4:B5)</f>
-        <v>48</v>
-      </c>
-      <c r="C6" s="24">
-        <f>SUM(C4:C5)</f>
-        <v>48</v>
-      </c>
-      <c r="D6" s="25">
-        <f>SUM(D4:D5)</f>
-        <v>48</v>
-      </c>
-      <c r="E6" s="26">
-        <f>SUM(E4:E5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="63" t="s">
-        <v>300</v>
-      </c>
-      <c r="I7" s="64" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C10" s="65" t="s">
-        <v>303</v>
-      </c>
-      <c r="F10" s="65" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -7197,13 +7923,13 @@
               <from>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
